--- a/Priset/ItemStat.xlsx
+++ b/Priset/ItemStat.xlsx
@@ -16,41 +16,49 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>`</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>체력아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HealAmount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>힐량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신성력회복아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동속도아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#SpeedItem[{}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#HolyItem[{}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>#HealthItem[{}]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>체력아이템</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HealAmount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>힐량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신성력회복아이템</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#HolyItem[{}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이동속도아이템</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#SpeedItem[{}]</t>
+    <t>HolyAmount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpeedAmount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -407,8 +415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -424,18 +432,18 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -539,10 +547,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -550,10 +558,10 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -639,14 +647,17 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
